--- a/teaching/traditional_assets/database/data/oman/oman_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,101 +590,95 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.08799999999999999</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2">
-        <v>-14.38</v>
+        <v>-6.43</v>
       </c>
       <c r="L2">
-        <v>-0.5240524781341107</v>
+        <v>32.97435897435897</v>
       </c>
       <c r="M2">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03710045662100457</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.1808066759388039</v>
+        <v>-0</v>
       </c>
       <c r="P2">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.03710045662100457</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.1808066759388039</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>50.641</v>
+        <v>13.3</v>
       </c>
       <c r="V2">
-        <v>0.7226170091324201</v>
+        <v>5.215686274509805</v>
       </c>
       <c r="W2">
-        <v>-0.1036697247706422</v>
+        <v>-0.166580310880829</v>
       </c>
       <c r="X2">
-        <v>0.05705033224645159</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="Y2">
-        <v>-0.1607200570170938</v>
+        <v>-0.2101067204643939</v>
       </c>
       <c r="Z2">
-        <v>0.2155030236393623</v>
+        <v>-0.05652173913043474</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05611693850604987</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="AC2">
-        <v>-0.05611693850604987</v>
+        <v>-0.04352640958356495</v>
       </c>
       <c r="AD2">
-        <v>19.28</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>19.28</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>-31.361</v>
+        <v>-13.3</v>
       </c>
       <c r="AH2">
-        <v>0.215756490599821</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.1105251089199725</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.809964100312508</v>
+        <v>1.237209302325581</v>
       </c>
       <c r="AK2">
-        <v>-0.2533219169783277</v>
+        <v>-0.6650000000000001</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -722,10 +716,10 @@
         <v>-0</v>
       </c>
       <c r="K3">
-        <v>-9.94</v>
+        <v>-6.43</v>
       </c>
       <c r="L3">
-        <v>1.696245733788396</v>
+        <v>32.97435897435897</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,295 +743,60 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>38.5</v>
+        <v>13.3</v>
       </c>
       <c r="V3">
-        <v>1.509803921568627</v>
+        <v>5.215686274509805</v>
       </c>
       <c r="W3">
-        <v>-0.2160869565217391</v>
+        <v>-0.166580310880829</v>
       </c>
       <c r="X3">
-        <v>0.05640395606463026</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="Y3">
-        <v>-0.2724909125863694</v>
+        <v>-0.2101067204643939</v>
       </c>
       <c r="Z3">
-        <v>-0.183125</v>
+        <v>-0.05652173913043474</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05566727120525422</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="AC3">
-        <v>-0.05566727120525422</v>
+        <v>-0.04352640958356495</v>
       </c>
       <c r="AD3">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-35.15</v>
+        <v>-13.3</v>
       </c>
       <c r="AH3">
-        <v>0.1161178509532062</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.07985697258641239</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.642487046632125</v>
+        <v>1.237209302325581</v>
       </c>
       <c r="AK3">
-        <v>-10.18840579710144</v>
+        <v>-0.6650000000000001</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Financial Services Company SAOG (MSM:FSCI)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>-0.361</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>-1.13</v>
-      </c>
-      <c r="L4">
-        <v>-5.649999999999999</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="V4">
-        <v>0.1014008620689655</v>
-      </c>
-      <c r="W4">
-        <v>-0.1036697247706422</v>
-      </c>
-      <c r="X4">
-        <v>0.05705033224645159</v>
-      </c>
-      <c r="Y4">
-        <v>-0.1607200570170938</v>
-      </c>
-      <c r="Z4">
-        <v>0.01813236627379873</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.05611693850604987</v>
-      </c>
-      <c r="AC4">
-        <v>-0.05611693850604987</v>
-      </c>
-      <c r="AD4">
-        <v>1.43</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1.43</v>
-      </c>
-      <c r="AG4">
-        <v>0.489</v>
-      </c>
-      <c r="AH4">
-        <v>0.1335200746965453</v>
-      </c>
-      <c r="AI4">
-        <v>0.1266607617360496</v>
-      </c>
-      <c r="AJ4">
-        <v>0.0500563005425325</v>
-      </c>
-      <c r="AK4">
-        <v>0.0472509421200116</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Global Financial Investments Holding SAOG (MSM:GFIC)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.185</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>-3.31</v>
-      </c>
-      <c r="L5">
-        <v>-0.09999999999999999</v>
-      </c>
-      <c r="M5">
-        <v>2.6</v>
-      </c>
-      <c r="N5">
-        <v>0.0736543909348442</v>
-      </c>
-      <c r="O5">
-        <v>-0.7854984894259819</v>
-      </c>
-      <c r="P5">
-        <v>2.6</v>
-      </c>
-      <c r="Q5">
-        <v>0.0736543909348442</v>
-      </c>
-      <c r="R5">
-        <v>-0.7854984894259819</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>11.2</v>
-      </c>
-      <c r="V5">
-        <v>0.3172804532577904</v>
-      </c>
-      <c r="W5">
-        <v>-0.03889541715628673</v>
-      </c>
-      <c r="X5">
-        <v>0.06435177444762648</v>
-      </c>
-      <c r="Y5">
-        <v>-0.1032471916039132</v>
-      </c>
-      <c r="Z5">
-        <v>0.3926453143534995</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.05776501713927353</v>
-      </c>
-      <c r="AC5">
-        <v>-0.05776501713927353</v>
-      </c>
-      <c r="AD5">
-        <v>14.5</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>14.5</v>
-      </c>
-      <c r="AG5">
-        <v>3.300000000000001</v>
-      </c>
-      <c r="AH5">
-        <v>0.2911646586345382</v>
-      </c>
-      <c r="AI5">
-        <v>0.1196369636963696</v>
-      </c>
-      <c r="AJ5">
-        <v>0.08549222797927464</v>
-      </c>
-      <c r="AK5">
-        <v>0.03000000000000001</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
         <v>0</v>
       </c>
     </row>
